--- a/spliced/falling/2023-03-25_18-04-18/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-04-18/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,17 +670,6 @@
         <v>-2.1325485110283</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-0.6240615844726562</v>
-      </c>
-      <c r="B22" t="n">
-        <v>4.550089359283447</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-3.513399362564087</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/spliced/falling/2023-03-25_18-04-18/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-04-18/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-3.75560998916626</v>
+        <v>-4.1851313829422</v>
       </c>
       <c r="B2" t="n">
-        <v>3.84902286529541</v>
+        <v>4.315697193145752</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.6511768102645874</v>
+        <v>-1.521726083755494</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-4.870891666412356</v>
+        <v>-4.044641017913818</v>
       </c>
       <c r="B3" t="n">
-        <v>3.396544885635375</v>
+        <v>4.278119564056396</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1143038809299458</v>
+        <v>-1.635269999504089</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-4.700507307052611</v>
+        <v>-4.037833023071289</v>
       </c>
       <c r="B4" t="n">
-        <v>4.103157997131351</v>
+        <v>4.246780538558959</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.4222948729991927</v>
+        <v>-1.5330271422863</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-4.943684387207032</v>
+        <v>-4.188077163696289</v>
       </c>
       <c r="B5" t="n">
-        <v>4.186895227432251</v>
+        <v>4.206779670715332</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9878155738115346</v>
+        <v>-1.555011582374573</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-5.002620124816895</v>
+        <v>-4.266698265075684</v>
       </c>
       <c r="B6" t="n">
-        <v>2.714760780334467</v>
+        <v>4.172728943824768</v>
       </c>
       <c r="C6" t="n">
-        <v>1.064968466758727</v>
+        <v>-1.657637816667557</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-5.456374883651734</v>
+        <v>-4.307723093032837</v>
       </c>
       <c r="B7" t="n">
-        <v>2.089365065097808</v>
+        <v>4.115167903900146</v>
       </c>
       <c r="C7" t="n">
-        <v>1.750832557678223</v>
+        <v>-1.525768172740936</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-5.036787080764768</v>
+        <v>-4.275023818016052</v>
       </c>
       <c r="B8" t="n">
-        <v>1.541897773742674</v>
+        <v>4.170393228530884</v>
       </c>
       <c r="C8" t="n">
-        <v>1.896076297760009</v>
+        <v>-1.397946566343308</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-5.012954092025758</v>
+        <v>-4.101493644714355</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4318521261215144</v>
+        <v>4.221428394317627</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7947881996631543</v>
+        <v>-1.457295727729798</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-6.129836273193367</v>
+        <v>-4.052593421936035</v>
       </c>
       <c r="B10" t="n">
-        <v>1.83154973983766</v>
+        <v>4.150938177108764</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.60779109001161</v>
+        <v>-1.483953177928925</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-4.299563241004924</v>
+        <v>-4.146867895126342</v>
       </c>
       <c r="B11" t="n">
-        <v>7.852099323272741</v>
+        <v>4.078793859481812</v>
       </c>
       <c r="C11" t="n">
-        <v>-5.872165632247949</v>
+        <v>-1.569497275352478</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-3.646280765533453</v>
+        <v>-4.033952045440674</v>
       </c>
       <c r="B12" t="n">
-        <v>12.82203674316406</v>
+        <v>4.105497026443481</v>
       </c>
       <c r="C12" t="n">
-        <v>-5.478024601936328</v>
+        <v>-1.389435482025145</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-2.318737292289721</v>
+        <v>-3.75560998916626</v>
       </c>
       <c r="B13" t="n">
-        <v>6.985545444488493</v>
+        <v>3.84902286529541</v>
       </c>
       <c r="C13" t="n">
-        <v>-2.094196039438245</v>
+        <v>-0.6511768102645874</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.412541198730471</v>
+        <v>-4.870891666412356</v>
       </c>
       <c r="B14" t="n">
-        <v>1.629453468322767</v>
+        <v>3.396544885635375</v>
       </c>
       <c r="C14" t="n">
-        <v>-1.321827816963195</v>
+        <v>-0.1143038809299458</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.654833269119258</v>
+        <v>-4.700507307052611</v>
       </c>
       <c r="B15" t="n">
-        <v>6.014033746719358</v>
+        <v>4.103157997131351</v>
       </c>
       <c r="C15" t="n">
-        <v>-2.261167562007916</v>
+        <v>-0.4222948729991927</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.3583765506744629</v>
+        <v>-4.943684387207032</v>
       </c>
       <c r="B16" t="n">
-        <v>5.71919040679932</v>
+        <v>4.186895227432251</v>
       </c>
       <c r="C16" t="n">
-        <v>-3.682787048816667</v>
+        <v>0.9878155738115346</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-2.107488989830001</v>
+        <v>-5.002620124816895</v>
       </c>
       <c r="B17" t="n">
-        <v>6.458877801895146</v>
+        <v>2.714760780334467</v>
       </c>
       <c r="C17" t="n">
-        <v>-2.10113409161568</v>
+        <v>1.064968466758727</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.009711074829105</v>
+        <v>-5.456374883651734</v>
       </c>
       <c r="B18" t="n">
-        <v>7.251273727416988</v>
+        <v>2.089365065097808</v>
       </c>
       <c r="C18" t="n">
-        <v>-2.904031562805179</v>
+        <v>1.750832557678223</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2.518718385696409</v>
+        <v>-5.036787080764768</v>
       </c>
       <c r="B19" t="n">
-        <v>6.290945339202878</v>
+        <v>1.541897773742674</v>
       </c>
       <c r="C19" t="n">
-        <v>-3.275830793380734</v>
+        <v>1.896076297760009</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1.816467857360826</v>
+        <v>-5.012954092025758</v>
       </c>
       <c r="B20" t="n">
-        <v>5.365327644348143</v>
+        <v>0.4318521261215144</v>
       </c>
       <c r="C20" t="n">
-        <v>-2.097930765151977</v>
+        <v>0.7947881996631543</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.8067591190338123</v>
+        <v>-6.129836273193367</v>
       </c>
       <c r="B21" t="n">
-        <v>5.145324730873104</v>
+        <v>1.83154973983766</v>
       </c>
       <c r="C21" t="n">
-        <v>-2.1325485110283</v>
+        <v>-1.60779109001161</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-4.299563241004924</v>
+      </c>
+      <c r="B22" t="n">
+        <v>7.852099323272741</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-5.872165632247949</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-3.646280765533453</v>
+      </c>
+      <c r="B23" t="n">
+        <v>12.82203674316406</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-5.478024601936328</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-2.318737292289721</v>
+      </c>
+      <c r="B24" t="n">
+        <v>6.985545444488493</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-2.094196039438245</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1.412541198730471</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.629453468322767</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.321827816963195</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>1.654833269119258</v>
+      </c>
+      <c r="B26" t="n">
+        <v>6.014033746719358</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-2.261167562007916</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.3583765506744629</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5.71919040679932</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-3.682787048816667</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-2.107488989830001</v>
+      </c>
+      <c r="B28" t="n">
+        <v>6.458877801895146</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-2.10113409161568</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2.009711074829105</v>
+      </c>
+      <c r="B29" t="n">
+        <v>7.251273727416988</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-2.904031562805179</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2.518718385696409</v>
+      </c>
+      <c r="B30" t="n">
+        <v>6.290945339202878</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-3.275830793380734</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>1.816467857360826</v>
+      </c>
+      <c r="B31" t="n">
+        <v>5.365327644348143</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-2.097930765151977</v>
       </c>
     </row>
   </sheetData>
